--- a/TH1/thongke.xlsx
+++ b/TH1/thongke.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinhgiabao/Desktop/HK1-nam3/XLTinHieu/TH1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BKDN\Nam3\KI_5\Xử lí tín hiệu số\THXLTH\Thi TH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A757B7-A042-C44A-99CD-6B75F586BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF3FA81-065A-4D3F-85C0-BC6CEEB2287C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{6C5466ED-F5AF-3645-8DE9-42A6A7418BB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C5466ED-F5AF-3645-8DE9-42A6A7418BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>F0std</t>
   </si>
@@ -96,23 +98,26 @@
   <si>
     <t>sai só % F0 mean</t>
   </si>
+  <si>
+    <t>AMDF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -125,7 +130,7 @@
     <font>
       <sz val="15"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,9 +169,649 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color rgb="FFC00000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color rgb="FFC00000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color rgb="FFC00000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color rgb="FFC00000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -189,6 +834,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -209,6 +867,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -228,6 +899,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -247,6 +930,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -266,6 +961,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -285,6 +992,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -300,7 +1019,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -319,6 +1048,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -337,6 +1101,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -361,6 +1138,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -381,6 +1171,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -400,6 +1203,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -419,6 +1234,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -438,6 +1265,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -457,6 +1296,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -472,7 +1323,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -491,289 +1352,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -789,24 +1402,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{440EF8AB-701A-E04C-A980-9E453390A3B2}" name="Table1" displayName="Table1" ref="A15:I24" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{440EF8AB-701A-E04C-A980-9E453390A3B2}" name="Table1" displayName="Table1" ref="A15:I24" totalsRowCount="1" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A15:I23" xr:uid="{440EF8AB-701A-E04C-A980-9E453390A3B2}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5691F26B-315D-9C49-8E67-ADF0C7979A71}" name="Column1" dataDxfId="39" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{2D9F4EDB-F26F-3C43-8B33-7D334FA4210D}" name="File" dataDxfId="38" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{96D89E27-C78E-B24F-99FB-888F4BE4B9E4}" name="F0mean-lab" dataDxfId="37" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{3A6DD74B-D085-434A-B4A6-46A1A4D7FF3D}" name="F0std-lab" dataDxfId="36" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{09E4F178-2365-A148-9FD4-837DDE41AAB2}" name="F0mean" dataDxfId="35" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{D7AA4190-C97C-6A46-902A-464DE22612D9}" name="F0 std" dataDxfId="34" totalsRowDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{90DBCCB7-1C47-7F4B-BBB3-A443737F9538}" name="dentaF0mean" totalsRowFunction="custom" dataDxfId="33" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{5691F26B-315D-9C49-8E67-ADF0C7979A71}" name="Column1" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{2D9F4EDB-F26F-3C43-8B33-7D334FA4210D}" name="File" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{96D89E27-C78E-B24F-99FB-888F4BE4B9E4}" name="F0mean-lab" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{3A6DD74B-D085-434A-B4A6-46A1A4D7FF3D}" name="F0std-lab" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{09E4F178-2365-A148-9FD4-837DDE41AAB2}" name="F0mean" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{D7AA4190-C97C-6A46-902A-464DE22612D9}" name="F0 std" dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{90DBCCB7-1C47-7F4B-BBB3-A443737F9538}" name="dentaF0mean" totalsRowFunction="custom" dataDxfId="65" totalsRowDxfId="64">
       <calculatedColumnFormula>ABS(E16-C16)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(G16:G23)/8,2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C1F3FF55-D5B9-C04F-BAB5-657DADAFC30D}" name="sai só % F0 mean" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="9">
+    <tableColumn id="8" xr3:uid="{C1F3FF55-D5B9-C04F-BAB5-657DADAFC30D}" name="sai só % F0 mean" totalsRowFunction="custom" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>ROUND((G16/C16)*100,2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(H16:H23)/8,2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{70ADB1DD-80B5-D34C-8FE5-B9BCC3752925}" name="dentaF0std" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="11">
+    <tableColumn id="9" xr3:uid="{70ADB1DD-80B5-D34C-8FE5-B9BCC3752925}" name="dentaF0std" totalsRowFunction="custom" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>ABS(F16-D16)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(I16:I23)/8,2)</totalsRowFormula>
     </tableColumn>
@@ -816,24 +1429,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{986A00CD-1ECA-044E-960A-2D79F258F588}" name="Table2" displayName="Table2" ref="A3:I12" totalsRowCount="1" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{986A00CD-1ECA-044E-960A-2D79F258F588}" name="Table2" displayName="Table2" ref="A3:I12" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A3:I11" xr:uid="{986A00CD-1ECA-044E-960A-2D79F258F588}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A7FF4349-E1B3-3843-9459-42DDAEFB1551}" name="Column1" dataDxfId="30" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{AE217F33-C475-354A-8C84-04D19A3C85C0}" name="File" dataDxfId="29" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D652D3C5-B27E-B84B-87E9-8301E9710710}" name="F0mean-lab" dataDxfId="28" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{86107EE2-ACF1-614E-BC07-8FFC07BDD496}" name="F0std-lab" dataDxfId="27" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4104A6C9-94D1-5149-86B1-631790498430}" name="F0mean" dataDxfId="26" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{788127B4-17D6-CE4D-9A0B-7023D9A33FE1}" name="F0std" dataDxfId="25" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{010BEF97-78F9-6A4F-8128-DB8709113B72}" name="dentaF0mean" totalsRowFunction="custom" dataDxfId="24" totalsRowDxfId="1">
+    <tableColumn id="1" xr3:uid="{A7FF4349-E1B3-3843-9459-42DDAEFB1551}" name="Column1" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{AE217F33-C475-354A-8C84-04D19A3C85C0}" name="File" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{D652D3C5-B27E-B84B-87E9-8301E9710710}" name="F0mean-lab" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{86107EE2-ACF1-614E-BC07-8FFC07BDD496}" name="F0std-lab" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{4104A6C9-94D1-5149-86B1-631790498430}" name="F0mean" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="6" xr3:uid="{788127B4-17D6-CE4D-9A0B-7023D9A33FE1}" name="F0std" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="7" xr3:uid="{010BEF97-78F9-6A4F-8128-DB8709113B72}" name="dentaF0mean" totalsRowFunction="custom" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>ABS(E4-C4)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(G4:G11)/8,2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C18FCF2D-7624-124B-916E-A0113ACC7390}" name="sai số % F0 mean" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="0">
+    <tableColumn id="8" xr3:uid="{C18FCF2D-7624-124B-916E-A0113ACC7390}" name="sai số % F0 mean" totalsRowFunction="custom" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>ROUND((G4/C4)*100,2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(H4:H11)/8,2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A1A60370-9CFC-1642-95BB-D0312F8083C1}" name="dentaF0std" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="2">
+    <tableColumn id="9" xr3:uid="{A1A60370-9CFC-1642-95BB-D0312F8083C1}" name="dentaF0std" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>ABS(F4-D4)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(I4:I11)/8,2)</totalsRowFormula>
     </tableColumn>
@@ -842,8 +1455,62 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ADE96EF6-BD71-4D12-8870-5F83E01ADC02}" name="Table14" displayName="Table14" ref="A28:I37" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A28:I36" xr:uid="{B91952F7-A465-4F49-B2B8-8BF809DBB492}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{DE4EDC99-6CD2-4E13-965A-B4800A0E7E68}" name="Column1" dataDxfId="37" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C62DAA6B-66D3-47CE-AF6B-2D5E427274CA}" name="File" dataDxfId="36" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4B77842C-8747-4DBB-88AB-94DA36051CCA}" name="F0mean-lab" dataDxfId="35" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5C836F2B-2E89-4DD3-B002-1DDBD5CAF5D4}" name="F0std-lab" dataDxfId="34" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{EA094005-E63A-4306-B74E-21C63B181AC9}" name="F0mean" dataDxfId="33" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{D4220784-E3D0-4FD9-ACCF-121B527246FB}" name="F0 std" dataDxfId="32" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EC97A75D-D370-4EF0-9A63-D66EAEA2FF7C}" name="dentaF0mean" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="2">
+      <calculatedColumnFormula>ABS(E29-C29)</calculatedColumnFormula>
+      <totalsRowFormula>ROUND(SUM(G29:G36)/8,2)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{F433B133-1B8D-442B-B550-25828D94E630}" name="sai só % F0 mean" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="1">
+      <calculatedColumnFormula>ROUND((G29/C29)*100,2)</calculatedColumnFormula>
+      <totalsRowFormula>ROUND(SUM(H29:H36)/8,2)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{3698E05C-BE4E-446A-907A-26F65553E15C}" name="dentaF0std" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="0">
+      <calculatedColumnFormula>ABS(F29-D29)</calculatedColumnFormula>
+      <totalsRowFormula>ROUND(SUM(I29:I36)/8,2)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B5E80825-7898-4EA6-A5BD-6F715C71D4AC}" name="Table145" displayName="Table145" ref="A40:I49" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A40:I48" xr:uid="{29B7EC90-6307-4D59-84FF-B838B4ECD340}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{0577BB3F-0278-4BEE-A63D-33BF331D188C}" name="Column1" dataDxfId="26" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{16AD092A-C4AB-4AB0-914A-86A568038124}" name="File" dataDxfId="25" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{AD675A19-0E99-474B-B2F0-6872797BE798}" name="F0mean-lab" dataDxfId="24" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{76F99BF9-39D3-4424-ADE0-A0970FCA88F9}" name="F0std-lab" dataDxfId="23" totalsRowDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{74DE0F7A-E580-44B8-8135-7E806D081BC0}" name="F0mean" dataDxfId="22" totalsRowDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{2E314ED6-3B06-42A2-B619-A82121A8754B}" name="F0 std" dataDxfId="21" totalsRowDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{AFC4F1BC-6BF9-4C1A-ACC9-48AE49AC7F77}" name="dentaF0mean" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="11">
+      <calculatedColumnFormula>ABS(E41-C41)</calculatedColumnFormula>
+      <totalsRowFormula>ROUND(SUM(G41:G48)/8,2)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7C1FD933-0725-4D93-9382-6A8684A0B966}" name="sai só % F0 mean" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="10">
+      <calculatedColumnFormula>ROUND((G41/C41)*100,2)</calculatedColumnFormula>
+      <totalsRowFormula>ROUND(SUM(H41:H48)/8,2)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{16D4298B-3962-495E-AD00-F756810C05B1}" name="dentaF0std" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="9">
+      <calculatedColumnFormula>ABS(F41-D41)</calculatedColumnFormula>
+      <totalsRowFormula>ROUND(SUM(I41:I48)/8,2)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1139,25 +1806,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C28FCDC-385D-BC4B-BACF-1B302379D6DD}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="105" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
+    <col min="7" max="7" width="20.453125" customWidth="1"/>
+    <col min="8" max="8" width="22.6328125" customWidth="1"/>
+    <col min="9" max="9" width="23.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="18.600000000000001">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1167,7 +1834,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.600000000000001">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,7 +1846,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.600000000000001">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1208,7 +1875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.600000000000001">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1240,7 +1907,7 @@
         <v>5.4261999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.600000000000001">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1260,19 +1927,19 @@
         <v>7.2557</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G4:G11" si="0">ABS(E5-C5)</f>
+        <f t="shared" ref="G5:G11" si="0">ABS(E5-C5)</f>
         <v>2.711199999999991</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" ref="H4:H11" si="1">ROUND((G5/C5)*100,2)</f>
+        <f t="shared" ref="H5:H11" si="1">ROUND((G5/C5)*100,2)</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I4:I11" si="2">ABS(F5-D5)</f>
+        <f t="shared" ref="I5:I11" si="2">ABS(F5-D5)</f>
         <v>1.6557000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.600000000000001">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1304,7 +1971,7 @@
         <v>0.88940000000000019</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.600000000000001">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1336,7 +2003,7 @@
         <v>17.6282</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.600000000000001">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1368,7 +2035,7 @@
         <v>2.0816999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18.600000000000001">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1400,7 +2067,7 @@
         <v>3.1885999999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.600000000000001">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1432,7 +2099,7 @@
         <v>0.86570000000000036</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.600000000000001">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1464,7 +2131,7 @@
         <v>16.8001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.600000000000001">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -1484,7 +2151,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.600000000000001">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1494,7 +2161,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18.600000000000001">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1506,7 +2173,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18.600000000000001">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1535,7 +2202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="18.600000000000001">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -1567,7 +2234,7 @@
         <v>49.817599999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="18.600000000000001">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -1599,7 +2266,7 @@
         <v>26.227499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="18.600000000000001">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -1631,7 +2298,7 @@
         <v>1.1831</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="18.600000000000001">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -1663,7 +2330,7 @@
         <v>11.8657</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="18.600000000000001">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -1695,7 +2362,7 @@
         <v>8.700899999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="18.600000000000001">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -1727,7 +2394,7 @@
         <v>3.7707999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18.600000000000001">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -1759,7 +2426,7 @@
         <v>30.114699999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18.600000000000001">
       <c r="A23" s="2">
         <v>8</v>
       </c>
@@ -1791,7 +2458,7 @@
         <v>0.59349999999999969</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="18.600000000000001">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -1811,7 +2478,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="18.600000000000001">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1821,11 +2488,633 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="18.600000000000001">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="18.600000000000001">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>135.5</v>
+      </c>
+      <c r="D29" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>134.53729999999999</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10.3865</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" ref="G29:G36" si="6">ABS(E29-C29)</f>
+        <v>0.96270000000001232</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" ref="H29:H36" si="7">ROUND((G29/C29)*100,2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" ref="I29:I36" si="8">ABS(F29-D29)</f>
+        <v>4.9864999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="18.600000000000001">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>239.7</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>224.94980000000001</v>
+      </c>
+      <c r="F30" s="2">
+        <v>37.200899999999997</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="6"/>
+        <v>14.750199999999978</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="7"/>
+        <v>6.15</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="8"/>
+        <v>31.600899999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="18.600000000000001">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2">
+        <v>115</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>115.773</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2.9523000000000001</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="6"/>
+        <v>0.77299999999999613</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="7"/>
+        <v>0.67</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5476999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="18.600000000000001">
+      <c r="A32" s="2">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2">
+        <v>202.9</v>
+      </c>
+      <c r="D32" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>146.69130000000001</v>
+      </c>
+      <c r="F32" s="2">
+        <v>53.954500000000003</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="6"/>
+        <v>56.208699999999993</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="7"/>
+        <v>27.7</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="8"/>
+        <v>38.454500000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18.600000000000001">
+      <c r="A33" s="2">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
+        <v>233.2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="E33" s="2">
+        <v>216.26750000000001</v>
+      </c>
+      <c r="F33" s="2">
+        <v>35.3795</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="6"/>
+        <v>16.932499999999976</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="7"/>
+        <v>7.26</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="8"/>
+        <v>23.779499999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18.600000000000001">
+      <c r="A34" s="2">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2">
+        <v>242.7</v>
+      </c>
+      <c r="D34" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>232.2518</v>
+      </c>
+      <c r="F34" s="2">
+        <v>38.928800000000003</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="6"/>
+        <v>10.448199999999986</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="7"/>
+        <v>4.3</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="8"/>
+        <v>30.428800000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18.600000000000001">
+      <c r="A35" s="2">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2">
+        <v>125.7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>125.5175</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8.6976999999999993</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="6"/>
+        <v>0.18250000000000455</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="8"/>
+        <v>0.19769999999999932</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18.600000000000001">
+      <c r="A36" s="2">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2">
+        <v>177.8</v>
+      </c>
+      <c r="D36" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="E36" s="2">
+        <v>172.31899999999999</v>
+      </c>
+      <c r="F36" s="2">
+        <v>14.916700000000001</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="6"/>
+        <v>5.481000000000023</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="7"/>
+        <v>3.08</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="8"/>
+        <v>9.2166999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18.600000000000001">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4">
+        <f>ROUND(SUM(G29:G36)/8,2)</f>
+        <v>13.22</v>
+      </c>
+      <c r="H37" s="4">
+        <f>ROUND(SUM(H29:H36)/8,2)</f>
+        <v>6.25</v>
+      </c>
+      <c r="I37" s="2">
+        <f>ROUND(SUM(I29:I36)/8,2)</f>
+        <v>17.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18.600000000000001">
+      <c r="A40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18.600000000000001">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>135.5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>150.50040000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>16.8154</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" ref="G41:G48" si="9">ABS(E41-C41)</f>
+        <v>15.000400000000013</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" ref="H41:H48" si="10">ROUND((G41/C41)*100,2)</f>
+        <v>11.07</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" ref="I41:I48" si="11">ABS(F41-D41)</f>
+        <v>11.4154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18.600000000000001">
+      <c r="A42" s="2">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>239.7</v>
+      </c>
+      <c r="D42" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="E42" s="2">
+        <v>198.89670000000001</v>
+      </c>
+      <c r="F42" s="2">
+        <v>36.457099999999997</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="9"/>
+        <v>40.803299999999979</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="10"/>
+        <v>17.02</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="11"/>
+        <v>30.857099999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18.600000000000001">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2">
+        <v>115</v>
+      </c>
+      <c r="D43" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E43" s="2">
+        <v>118.4791</v>
+      </c>
+      <c r="F43" s="2">
+        <v>3.1402999999999999</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="9"/>
+        <v>3.4791000000000025</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="10"/>
+        <v>3.03</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="11"/>
+        <v>1.3597000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18.600000000000001">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>202.9</v>
+      </c>
+      <c r="D44" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="E44" s="2">
+        <v>166.8569</v>
+      </c>
+      <c r="F44" s="2">
+        <v>19.4666</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="9"/>
+        <v>36.04310000000001</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="10"/>
+        <v>17.760000000000002</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="11"/>
+        <v>3.9665999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18.600000000000001">
+      <c r="A45" s="2">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>233.2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="E45" s="2">
+        <v>232.76490000000001</v>
+      </c>
+      <c r="F45" s="2">
+        <v>37.168300000000002</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="9"/>
+        <v>0.43509999999997717</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="10"/>
+        <v>0.19</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="11"/>
+        <v>25.568300000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18.600000000000001">
+      <c r="A46" s="2">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2">
+        <v>242.7</v>
+      </c>
+      <c r="D46" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>203.46449999999999</v>
+      </c>
+      <c r="F46" s="2">
+        <v>35.313499999999998</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="9"/>
+        <v>39.235500000000002</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="10"/>
+        <v>16.170000000000002</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="11"/>
+        <v>26.813499999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18.600000000000001">
+      <c r="A47" s="2">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2">
+        <v>125.7</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E47" s="2">
+        <v>130.1541</v>
+      </c>
+      <c r="F47" s="2">
+        <v>6.4686000000000003</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="9"/>
+        <v>4.4540999999999968</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="10"/>
+        <v>3.54</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0313999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18.600000000000001">
+      <c r="A48" s="2">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="2">
+        <v>177.8</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="E48" s="2">
+        <v>172.31899999999999</v>
+      </c>
+      <c r="F48" s="2">
+        <v>14.916700000000001</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="9"/>
+        <v>5.481000000000023</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="10"/>
+        <v>3.08</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="11"/>
+        <v>9.2166999999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="18.600000000000001">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="4">
+        <f>ROUND(SUM(G41:G48)/8,2)</f>
+        <v>18.12</v>
+      </c>
+      <c r="H49" s="4">
+        <f>ROUND(SUM(H41:H48)/8,2)</f>
+        <v>8.98</v>
+      </c>
+      <c r="I49" s="2">
+        <f>ROUND(SUM(I41:I48)/8,2)</f>
+        <v>13.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/TH1/thongke.xlsx
+++ b/TH1/thongke.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BKDN\Nam3\KI_5\Xử lí tín hiệu số\THXLTH\Thi TH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dinhgiabao/Desktop/HK1-nam3/XLTinHieu/TH1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF3FA81-065A-4D3F-85C0-BC6CEEB2287C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040A4FD5-A6AC-E74A-89B8-789ECE1962A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C5466ED-F5AF-3645-8DE9-42A6A7418BB8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{6C5466ED-F5AF-3645-8DE9-42A6A7418BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -106,18 +105,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -130,7 +129,7 @@
     <font>
       <sz val="15"/>
       <color rgb="FFC00000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -169,7 +168,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="80">
     <dxf>
@@ -193,6 +192,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -213,6 +225,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -233,6 +258,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -252,6 +290,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -271,6 +321,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -290,6 +352,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -309,6 +383,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -327,6 +413,17 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -346,6 +443,40 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -361,6 +492,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -385,6 +529,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -405,6 +562,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -424,6 +594,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -443,6 +625,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -462,6 +656,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -481,6 +687,18 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -499,6 +717,17 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -515,236 +744,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="1"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1459,21 +1458,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ADE96EF6-BD71-4D12-8870-5F83E01ADC02}" name="Table14" displayName="Table14" ref="A28:I37" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A28:I36" xr:uid="{B91952F7-A465-4F49-B2B8-8BF809DBB492}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DE4EDC99-6CD2-4E13-965A-B4800A0E7E68}" name="Column1" dataDxfId="37" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{C62DAA6B-66D3-47CE-AF6B-2D5E427274CA}" name="File" dataDxfId="36" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4B77842C-8747-4DBB-88AB-94DA36051CCA}" name="F0mean-lab" dataDxfId="35" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5C836F2B-2E89-4DD3-B002-1DDBD5CAF5D4}" name="F0std-lab" dataDxfId="34" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{EA094005-E63A-4306-B74E-21C63B181AC9}" name="F0mean" dataDxfId="33" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{D4220784-E3D0-4FD9-ACCF-121B527246FB}" name="F0 std" dataDxfId="32" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{EC97A75D-D370-4EF0-9A63-D66EAEA2FF7C}" name="dentaF0mean" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{DE4EDC99-6CD2-4E13-965A-B4800A0E7E68}" name="Column1" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{C62DAA6B-66D3-47CE-AF6B-2D5E427274CA}" name="File" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{4B77842C-8747-4DBB-88AB-94DA36051CCA}" name="F0mean-lab" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{5C836F2B-2E89-4DD3-B002-1DDBD5CAF5D4}" name="F0std-lab" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{EA094005-E63A-4306-B74E-21C63B181AC9}" name="F0mean" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{D4220784-E3D0-4FD9-ACCF-121B527246FB}" name="F0 std" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{EC97A75D-D370-4EF0-9A63-D66EAEA2FF7C}" name="dentaF0mean" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>ABS(E29-C29)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(G29:G36)/8,2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F433B133-1B8D-442B-B550-25828D94E630}" name="sai só % F0 mean" totalsRowFunction="custom" dataDxfId="30" totalsRowDxfId="1">
+    <tableColumn id="8" xr3:uid="{F433B133-1B8D-442B-B550-25828D94E630}" name="sai só % F0 mean" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="22">
       <calculatedColumnFormula>ROUND((G29/C29)*100,2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(H29:H36)/8,2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3698E05C-BE4E-446A-907A-26F65553E15C}" name="dentaF0std" totalsRowFunction="custom" dataDxfId="29" totalsRowDxfId="0">
+    <tableColumn id="9" xr3:uid="{3698E05C-BE4E-446A-907A-26F65553E15C}" name="dentaF0std" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>ABS(F29-D29)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(I29:I36)/8,2)</totalsRowFormula>
     </tableColumn>
@@ -1483,24 +1482,24 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B5E80825-7898-4EA6-A5BD-6F715C71D4AC}" name="Table145" displayName="Table145" ref="A40:I49" totalsRowCount="1" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B5E80825-7898-4EA6-A5BD-6F715C71D4AC}" name="Table145" displayName="Table145" ref="A40:I49" totalsRowCount="1" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A40:I48" xr:uid="{29B7EC90-6307-4D59-84FF-B838B4ECD340}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{0577BB3F-0278-4BEE-A63D-33BF331D188C}" name="Column1" dataDxfId="26" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{16AD092A-C4AB-4AB0-914A-86A568038124}" name="File" dataDxfId="25" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{AD675A19-0E99-474B-B2F0-6872797BE798}" name="F0mean-lab" dataDxfId="24" totalsRowDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{76F99BF9-39D3-4424-ADE0-A0970FCA88F9}" name="F0std-lab" dataDxfId="23" totalsRowDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{74DE0F7A-E580-44B8-8135-7E806D081BC0}" name="F0mean" dataDxfId="22" totalsRowDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{2E314ED6-3B06-42A2-B619-A82121A8754B}" name="F0 std" dataDxfId="21" totalsRowDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{AFC4F1BC-6BF9-4C1A-ACC9-48AE49AC7F77}" name="dentaF0mean" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{0577BB3F-0278-4BEE-A63D-33BF331D188C}" name="Column1" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{16AD092A-C4AB-4AB0-914A-86A568038124}" name="File" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{AD675A19-0E99-474B-B2F0-6872797BE798}" name="F0mean-lab" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{76F99BF9-39D3-4424-ADE0-A0970FCA88F9}" name="F0std-lab" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{74DE0F7A-E580-44B8-8135-7E806D081BC0}" name="F0mean" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{2E314ED6-3B06-42A2-B619-A82121A8754B}" name="F0 std" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{AFC4F1BC-6BF9-4C1A-ACC9-48AE49AC7F77}" name="dentaF0mean" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>ABS(E41-C41)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(G41:G48)/8,2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7C1FD933-0725-4D93-9382-6A8684A0B966}" name="sai só % F0 mean" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="10">
+    <tableColumn id="8" xr3:uid="{7C1FD933-0725-4D93-9382-6A8684A0B966}" name="sai só % F0 mean" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>ROUND((G41/C41)*100,2)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(H41:H48)/8,2)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{16D4298B-3962-495E-AD00-F756810C05B1}" name="dentaF0std" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="9">
+    <tableColumn id="9" xr3:uid="{16D4298B-3962-495E-AD00-F756810C05B1}" name="dentaF0std" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>ABS(F41-D41)</calculatedColumnFormula>
       <totalsRowFormula>ROUND(SUM(I41:I48)/8,2)</totalsRowFormula>
     </tableColumn>
@@ -1510,7 +1509,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1812,19 +1811,19 @@
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="19.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="6" width="24.81640625" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" customWidth="1"/>
-    <col min="8" max="8" width="22.6328125" customWidth="1"/>
-    <col min="9" max="9" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.600000000000001">
+    <row r="1" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1834,7 +1833,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="18.600000000000001">
+    <row r="2" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1846,7 +1845,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="18.600000000000001">
+    <row r="3" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1875,7 +1874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.600000000000001">
+    <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>5.4261999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.600000000000001">
+    <row r="5" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1939,7 +1938,7 @@
         <v>1.6557000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.600000000000001">
+    <row r="6" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>0.88940000000000019</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.600000000000001">
+    <row r="7" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -2003,7 +2002,7 @@
         <v>17.6282</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.600000000000001">
+    <row r="8" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -2035,7 +2034,7 @@
         <v>2.0816999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.600000000000001">
+    <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -2067,7 +2066,7 @@
         <v>3.1885999999999992</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.600000000000001">
+    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>0.86570000000000036</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.600000000000001">
+    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>16.8001</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.600000000000001">
+    <row r="12" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2151,7 +2150,7 @@
         <v>6.07</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.600000000000001">
+    <row r="13" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2161,7 +2160,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="18.600000000000001">
+    <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2173,7 +2172,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="18.600000000000001">
+    <row r="15" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2202,7 +2201,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.600000000000001">
+    <row r="16" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>49.817599999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18.600000000000001">
+    <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -2266,7 +2265,7 @@
         <v>26.227499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18.600000000000001">
+    <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>3</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>1.1831</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.600000000000001">
+    <row r="19" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
@@ -2330,7 +2329,7 @@
         <v>11.8657</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18.600000000000001">
+    <row r="20" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>5</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>8.700899999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18.600000000000001">
+    <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -2394,7 +2393,7 @@
         <v>3.7707999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.600000000000001">
+    <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>7</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>30.114699999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18.600000000000001">
+    <row r="23" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>8</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>0.59349999999999969</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18.600000000000001">
+    <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -2478,7 +2477,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.600000000000001">
+    <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2488,12 +2487,12 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18.600000000000001">
+    <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>16</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18.600000000000001">
+    <row r="29" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>4.9864999999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18.600000000000001">
+    <row r="30" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -2586,7 +2585,7 @@
         <v>31.600899999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18.600000000000001">
+    <row r="31" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -2618,7 +2617,7 @@
         <v>1.5476999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18.600000000000001">
+    <row r="32" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>38.454500000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18.600000000000001">
+    <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -2682,7 +2681,7 @@
         <v>23.779499999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18.600000000000001">
+    <row r="34" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -2714,7 +2713,7 @@
         <v>30.428800000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18.600000000000001">
+    <row r="35" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>0.19769999999999932</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18.600000000000001">
+    <row r="36" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>8</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>9.2166999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18.600000000000001">
+    <row r="37" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="2"/>
@@ -2798,12 +2797,12 @@
         <v>17.53</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18.600000000000001">
+    <row r="40" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>16</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18.600000000000001">
+    <row r="41" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>11.4154</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18.600000000000001">
+    <row r="42" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>2</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>30.857099999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18.600000000000001">
+    <row r="43" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>3</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>1.3597000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18.600000000000001">
+    <row r="44" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -2960,7 +2959,7 @@
         <v>3.9665999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18.600000000000001">
+    <row r="45" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>5</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>25.568300000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18.600000000000001">
+    <row r="46" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>6</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>26.813499999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18.600000000000001">
+    <row r="47" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>7</v>
       </c>
@@ -3056,7 +3055,7 @@
         <v>2.0313999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18.600000000000001">
+    <row r="48" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>8</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>9.2166999999999994</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18.600000000000001">
+    <row r="49" spans="1:9" ht="20" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="2"/>
@@ -3117,4 +3116,18 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43286288-12E9-1249-A0BA-8FC068B10515}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>